--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\PYTHON3\VALEO_GA\VALEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D767E66-EA88-444D-A70F-197E43E58366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B82D062-F9D1-4855-8E01-6F0C839691B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
